--- a/biology/Botanique/Malassezia_furfur/Malassezia_furfur.xlsx
+++ b/biology/Botanique/Malassezia_furfur/Malassezia_furfur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Malassezia furfur (Malassezia en référence à Louis-Charles Malassez et du latin furfur, "son"), parfois aussi appelé Pityrosporum ovale, est une levure[1] à caractère lipophile[2], appartenant au groupe des Fungi imperfecti et faisant partie de la flore commensale naturelle des humains (présente chez pratiquement 100 % de la population). Cette espèce ainsi que d'autres du genre Malassezia sont également  commensales ou parasites d'autres mammifères (chiens notamment).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Malassezia furfur (Malassezia en référence à Louis-Charles Malassez et du latin furfur, "son"), parfois aussi appelé Pityrosporum ovale, est une levure à caractère lipophile, appartenant au groupe des Fungi imperfecti et faisant partie de la flore commensale naturelle des humains (présente chez pratiquement 100 % de la population). Cette espèce ainsi que d'autres du genre Malassezia sont également  commensales ou parasites d'autres mammifères (chiens notamment).
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Pathogène opportuniste parfois</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce champignon microscopique (du groupe des charbons Ustilaginomycetes, qui sont des phytopathogènes) est un agent faiblement pathogène pour l'humain. 
-Malassezia furfur est responsable d'environ 3 % des dermatoses telle que la dermite séborrhéique de l'adulte ou le pityriasis versicolor[2]. Chez les personnes immunodéprimées, elle peut causer une folliculite et parfois l'onychomycose[2].
+Malassezia furfur est responsable d'environ 3 % des dermatoses telle que la dermite séborrhéique de l'adulte ou le pityriasis versicolor. Chez les personnes immunodéprimées, elle peut causer une folliculite et parfois l'onychomycose.
 </t>
         </is>
       </c>
